--- a/Recycling/Met_rec_tech/metrec_tech_Avg_full_Max.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Avg_full_Max.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.556290867029222E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.060220819574117E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.865410816718642E-06</v>
+      </c>
+      <c r="E7">
         <v>11.82556530464046</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.77321775412369E-08</v>
-      </c>
-      <c r="F7">
-        <v>6.865410816718642E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>31.5138601218358</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1264.887861915583</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>84.95586173989167</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>911244.3063588948</v>
+      </c>
+      <c r="E7">
         <v>2186431.538838516</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>160272.3196236137</v>
-      </c>
-      <c r="F7">
-        <v>911244.3063588948</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5826604.978781777</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1230.355977960697</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>82.63653680428325</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>876757.4517701868</v>
+      </c>
+      <c r="E7">
         <v>2247306.579131059</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>155896.8288713811</v>
-      </c>
-      <c r="F7">
-        <v>876757.4517701868</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5988830.416236134</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.212639062555978E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.8443501232613E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9.154070297022929E-05</v>
+      </c>
+      <c r="E7">
         <v>24.12712782450684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.139042503049039E-07</v>
-      </c>
-      <c r="F7">
-        <v>9.154070297022929E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64.29620164583567</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.403176765927352E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.315619030702667E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.001020718770497514</v>
+      </c>
+      <c r="E7">
         <v>51.14093515645217</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.191464474822059E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.001020718770497514</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>136.2850938202407</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.453528474503009E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.677790244634709E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.007985362175151629</v>
+      </c>
+      <c r="E7">
         <v>91.07256028770874</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0001071135757094717</v>
-      </c>
-      <c r="F7">
-        <v>0.007985362175151629</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>242.6985815822333</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.947211267181083E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.666076240139013E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.05807388583446054</v>
+      </c>
+      <c r="E7">
         <v>175.7545987934745</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0008802722345838491</v>
-      </c>
-      <c r="F7">
-        <v>0.05807388583446054</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>468.3671096867974</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.652815021617394E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.125051015029816E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.3494853941843428</v>
+      </c>
+      <c r="E7">
         <v>319.7688002220059</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.005895522273135567</v>
-      </c>
-      <c r="F7">
-        <v>0.3494853941843428</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>852.1494729363325</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.000224643017582431</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.508808940079683E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.536729987642662</v>
+      </c>
+      <c r="E7">
         <v>473.3482382119202</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.02846422880575269</v>
-      </c>
-      <c r="F7">
-        <v>1.536729987642662</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1261.422163224137</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001141471403645049</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.666662766551303E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.195174855288339</v>
+      </c>
+      <c r="E7">
         <v>812.9387487381542</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1446343783939512</v>
-      </c>
-      <c r="F7">
-        <v>7.195174855288339</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2166.394363007859</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.005313830784506858</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0003569020519764254</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>31.17588986017694</v>
+      </c>
+      <c r="E7">
         <v>1382.689489098727</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.6733086873254541</v>
-      </c>
-      <c r="F7">
-        <v>31.17588986017694</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3684.718829829731</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.02299815270560616</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.001544664899046038</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>126.6499285724946</v>
+      </c>
+      <c r="E7">
         <v>2328.801422950601</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.914066449814334</v>
-      </c>
-      <c r="F7">
-        <v>126.6499285724946</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6206.005413170285</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.08280155066547989</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.005561344449564034</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>430.8253048942385</v>
+      </c>
+      <c r="E7">
         <v>3439.434499329715</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10.49167834806396</v>
-      </c>
-      <c r="F7">
-        <v>430.8253048942385</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9165.723153003079</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2966664171366503</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.01992552215574375</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1463.546462015741</v>
+      </c>
+      <c r="E7">
         <v>5295.025802149792</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37.59022144216828</v>
-      </c>
-      <c r="F7">
-        <v>1463.546462015741</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>14110.67447278651</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.00026627356116</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.06718262211089977</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4664.736913864879</v>
+      </c>
+      <c r="E7">
         <v>8027.597997172281</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>126.7424573607099</v>
-      </c>
-      <c r="F7">
-        <v>4664.736913864879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>21392.68558247651</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.669224710536994</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1792777781246646</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>11555.00940811321</v>
+      </c>
+      <c r="E7">
         <v>10174.92959875071</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>338.2140416040959</v>
-      </c>
-      <c r="F7">
-        <v>11555.00940811321</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>27115.0934322548</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.335580573140553</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4926923466636571</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>28008.30866719668</v>
+      </c>
+      <c r="E7">
         <v>14490.14567478422</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>929.4820115220767</v>
-      </c>
-      <c r="F7">
-        <v>28008.30866719668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38614.68032830396</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>16.24042177379068</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.090783672097384</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>49494.68048902079</v>
+      </c>
+      <c r="E7">
         <v>19608.16440680912</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2057.803025644806</v>
-      </c>
-      <c r="F7">
-        <v>49494.68048902079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52253.64998996378</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>25.66526381240038</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.723800717529259</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>58986.82514449965</v>
+      </c>
+      <c r="E7">
         <v>25925.56127124503</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3252.012679397446</v>
-      </c>
-      <c r="F7">
-        <v>58986.82514449965</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69088.83342443642</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>23.95998668528188</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.609266226210575</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>55995.75890234611</v>
+      </c>
+      <c r="E7">
         <v>33530.72788256426</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3035.939200480139</v>
-      </c>
-      <c r="F7">
-        <v>55995.75890234611</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>89355.78478094553</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.42382990882756</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9016080176681213</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>55856.98078907284</v>
+      </c>
+      <c r="E7">
         <v>42462.75413554257</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1700.916280801675</v>
-      </c>
-      <c r="F7">
-        <v>55856.98078907284</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>113158.6744263536</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.82847005865756</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.7272913535312779</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>59190.09230016126</v>
+      </c>
+      <c r="E7">
         <v>52698.99022851454</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1372.061560973158</v>
-      </c>
-      <c r="F7">
-        <v>59190.09230016126</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>140437.1430743954</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>7.430528925424161E-05</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0001980156069961268</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>17.93320250170452</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.204478846038581</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>62918.49616188456</v>
+      </c>
+      <c r="E7">
         <v>64153.73685138008</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2272.293101837037</v>
-      </c>
-      <c r="F7">
-        <v>62918.49616188456</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>170962.8112775385</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>26.1305837848127</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.755053811523855</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>65732.38297987721</v>
+      </c>
+      <c r="E7">
         <v>76692.04679408786</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3310.97277664494</v>
-      </c>
-      <c r="F7">
-        <v>65732.38297987721</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>204376.0592297242</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>36.75500788663968</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.468640471841595</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>68627.65843524953</v>
+      </c>
+      <c r="E7">
         <v>90161.03461327359</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4657.179935978472</v>
-      </c>
-      <c r="F7">
-        <v>68627.65843524953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>240269.4636617277</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>50.42730269645478</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.386936569466105</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74013.33703540105</v>
+      </c>
+      <c r="E7">
         <v>104444.1616620484</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6389.578885896773</v>
-      </c>
-      <c r="F7">
-        <v>74013.33703540105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>278332.4616091382</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>59.44827242861243</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.992827637283214</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74432.92611858096</v>
+      </c>
+      <c r="E7">
         <v>119543.7393141397</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7532.61439739084</v>
-      </c>
-      <c r="F7">
-        <v>74432.92611858096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>318571.2126344341</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>71.14348369345059</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.778333436769433</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>73407.20364303875</v>
+      </c>
+      <c r="E7">
         <v>135693.3426347456</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9014.499625592143</v>
-      </c>
-      <c r="F7">
-        <v>73407.20364303875</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>361608.1691737548</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>112.3804829918787</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.548005687129816</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74885.16906574481</v>
+      </c>
+      <c r="E7">
         <v>153495.3050493231</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14239.58694824801</v>
-      </c>
-      <c r="F7">
-        <v>74885.16906574481</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>409048.4850466059</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>181.3341722738724</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.17926215616175</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>75237.45753244203</v>
+      </c>
+      <c r="E7">
         <v>174068.0749178606</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22976.62053088872</v>
-      </c>
-      <c r="F7">
-        <v>75237.45753244203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>463872.7048833862</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>259.7867911476427</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.44851174171692</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>78252.36303504162</v>
+      </c>
+      <c r="E7">
         <v>199175.5071781446</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32917.25130617687</v>
-      </c>
-      <c r="F7">
-        <v>78252.36303504162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>530781.3124540169</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>335.4482086762398</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.53029102045009</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81255.47967974552</v>
+      </c>
+      <c r="E7">
         <v>231297.0562998458</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42504.21253683837</v>
-      </c>
-      <c r="F7">
-        <v>81255.47967974552</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>616381.7873438511</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.003735479402156124</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.009954650990033663</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>323.0197536200036</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.69553709388539</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>79683.37159076727</v>
+      </c>
+      <c r="E7">
         <v>273589.7239097033</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40929.41892771624</v>
-      </c>
-      <c r="F7">
-        <v>79683.37159076727</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>729087.199465954</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>287.0824303647389</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.28181619600882</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>73713.35935514775</v>
+      </c>
+      <c r="E7">
         <v>329709.994343776</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36375.84676325404</v>
-      </c>
-      <c r="F7">
-        <v>73713.35935514775</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>878641.6864522938</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>278.5454460710907</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.70843188332481</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>67360.88873385907</v>
+      </c>
+      <c r="E7">
         <v>403490.6281337126</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35294.13642629085</v>
-      </c>
-      <c r="F7">
-        <v>67360.88873385907</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1075259.143043909</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>252.7655941017835</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.97693488226852</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>70830.4091032584</v>
+      </c>
+      <c r="E7">
         <v>498495.9229563163</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32027.60442841323</v>
-      </c>
-      <c r="F7">
-        <v>70830.4091032584</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1328438.039337216</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>220.9789145236293</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.84199087915171</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>87787.38945021668</v>
+      </c>
+      <c r="E7">
         <v>617506.6087533373</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27999.95500389584</v>
-      </c>
-      <c r="F7">
-        <v>87787.38945021668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1645588.721659299</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>196.6321255261273</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.2067451770152</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>128662.0935441954</v>
+      </c>
+      <c r="E7">
         <v>761999.088577112</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24915.00457824557</v>
-      </c>
-      <c r="F7">
-        <v>128662.0935441954</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2030645.645410486</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>254.9163421615683</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.12138931202936</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>204295.3508820934</v>
+      </c>
+      <c r="E7">
         <v>931681.1779436134</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32300.12295819473</v>
-      </c>
-      <c r="F7">
-        <v>204295.3508820934</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2482830.170354797</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>395.9774933217564</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.59572455996669</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>306981.9825511231</v>
+      </c>
+      <c r="E7">
         <v>1124131.537229959</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50173.80060656906</v>
-      </c>
-      <c r="F7">
-        <v>306981.9825511231</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2995689.686725403</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>551.8511781423073</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.06493974908829</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>420047.8387197955</v>
+      </c>
+      <c r="E7">
         <v>1334577.466425563</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69924.35540803258</v>
-      </c>
-      <c r="F7">
-        <v>420047.8387197955</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3556505.462126649</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>777.1376653249072</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>52.196247616938</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>580729.6122953898</v>
+      </c>
+      <c r="E7">
         <v>1555848.977985734</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>98470.11742200989</v>
-      </c>
-      <c r="F7">
-        <v>580729.6122953898</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4146170.250626704</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.03613825054812977</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.09630455233922051</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1068.83836642822</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>71.78824875673263</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>785724.1437917497</v>
+      </c>
+      <c r="E7">
         <v>1778562.629528726</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>135431.1393507526</v>
-      </c>
-      <c r="F7">
-        <v>785724.1437917497</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4739678.187130593</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1214.430496581891</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.56690602127443</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>889991.8012529005</v>
+      </c>
+      <c r="E7">
         <v>1991596.871489058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153878.9315394875</v>
-      </c>
-      <c r="F7">
-        <v>889991.8012529005</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5307391.537769717</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1221.236225089909</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>82.02401099284944</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>896792.1140667284</v>
+      </c>
+      <c r="E7">
         <v>2182898.024484917</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>154741.2766750135</v>
-      </c>
-      <c r="F7">
-        <v>896792.1140667284</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5817188.542932059</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1211.618903964124</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.37806613997293</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>889029.3969898692</v>
+      </c>
+      <c r="E7">
         <v>2340592.337633943</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153522.6782428485</v>
-      </c>
-      <c r="F7">
-        <v>889029.3969898692</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6237426.933111791</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1186.764193144728</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.70870600178664</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>868306.0249704536</v>
+      </c>
+      <c r="E7">
         <v>2454288.345124414</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>150373.3696942109</v>
-      </c>
-      <c r="F7">
-        <v>868306.0249704536</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6540414.569149781</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1149.387727476643</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>77.19832548092781</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>837283.3293487991</v>
+      </c>
+      <c r="E7">
         <v>2516368.056961157</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>145637.4456393431</v>
-      </c>
-      <c r="F7">
-        <v>837283.3293487991</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6705850.326750247</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1125.808146309378</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>75.61460909163698</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>813643.5042092917</v>
+      </c>
+      <c r="E7">
         <v>2523023.852470981</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>142649.7071344391</v>
-      </c>
-      <c r="F7">
-        <v>813643.5042092917</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6723587.306192053</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1098.395265146122</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>73.77343011275836</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>782778.1595631911</v>
+      </c>
+      <c r="E7">
         <v>2474826.990512198</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>139176.2561006472</v>
-      </c>
-      <c r="F7">
-        <v>782778.1595631911</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6595147.850914217</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1011.288485801829</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>67.92292610730931</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>701920.6302795791</v>
+      </c>
+      <c r="E7">
         <v>2376714.837260809</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>128139.0677452229</v>
-      </c>
-      <c r="F7">
-        <v>701920.6302795791</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6333689.51093929</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>809.9097583847441</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>54.39737665829185</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>529987.865584064</v>
+      </c>
+      <c r="E7">
         <v>2237427.092481279</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>102622.6273256677</v>
-      </c>
-      <c r="F7">
-        <v>529987.865584064</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5962502.646498601</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1717004214844224</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.4575631630394051</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>535.3946348985899</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.95964033510506</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>298800.71501477</v>
+      </c>
+      <c r="E7">
         <v>2068550.007106605</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67839.1679079624</v>
-      </c>
-      <c r="F7">
-        <v>298800.71501477</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5512463.37064323</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>418.7495887981199</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.12520638445642</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>179745.3706511584</v>
+      </c>
+      <c r="E7">
         <v>1883387.221381565</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53059.22363463097</v>
-      </c>
-      <c r="F7">
-        <v>179745.3706511584</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5019024.454296577</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>432.2527810683904</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.03214475433132</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>166523.7349761145</v>
+      </c>
+      <c r="E7">
         <v>1695841.196678246</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54770.19581852272</v>
-      </c>
-      <c r="F7">
-        <v>166523.7349761145</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4519234.462304609</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>414.6545552661293</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.85016453051914</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>153967.9476492647</v>
+      </c>
+      <c r="E7">
         <v>1519387.228311618</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>52540.34718489204</v>
-      </c>
-      <c r="F7">
-        <v>153967.9476492647</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4049003.60789745</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>360.4300591396808</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.20819045950754</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>128980.8294975806</v>
+      </c>
+      <c r="E7">
         <v>1366126.98620638</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45669.63078680268</v>
-      </c>
-      <c r="F7">
-        <v>128980.8294975806</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3640581.540324249</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>295.5773353764156</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.85237426474747</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>100998.3399851801</v>
+      </c>
+      <c r="E7">
         <v>1245894.26843318</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37452.22528833673</v>
-      </c>
-      <c r="F7">
-        <v>100998.3399851801</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3320174.274171319</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>256.0076651398988</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.19468773385167</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>100298.201413861</v>
+      </c>
+      <c r="E7">
         <v>1165465.577568845</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32438.40309389837</v>
-      </c>
-      <c r="F7">
-        <v>100298.201413861</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3105840.460236316</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>249.5804817612807</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.7630076466826</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>133173.1135696669</v>
+      </c>
+      <c r="E7">
         <v>1128033.638352394</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31624.0229264917</v>
-      </c>
-      <c r="F7">
-        <v>133173.1135696669</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3006088.366685794</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>279.9282553630357</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.80130790700742</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>191999.9170665824</v>
+      </c>
+      <c r="E7">
         <v>1133130.32627144</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35469.35041915932</v>
-      </c>
-      <c r="F7">
-        <v>191999.9170665824</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3019670.492024231</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>367.4336165936403</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.67858256038904</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>278195.2915895836</v>
+      </c>
+      <c r="E7">
         <v>1177082.427147406</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46557.04257448751</v>
-      </c>
-      <c r="F7">
-        <v>278195.2915895836</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3136798.115388034</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.034393424354978E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.0529845283457E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.640360215595007E-10</v>
+      </c>
+      <c r="E7">
         <v>0.6056660154217777</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.64610255788351E-13</v>
-      </c>
-      <c r="F7">
-        <v>1.640360215595007E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.614034813461448</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>511.5741567656433</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>34.35974416424926</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>389076.6453741603</v>
+      </c>
+      <c r="E7">
         <v>1253893.081804504</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>64820.90565732367</v>
-      </c>
-      <c r="F7">
-        <v>389076.6453741603</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3341490.251820662</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>694.2837874715366</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>46.63138862551335</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>520583.3999970317</v>
+      </c>
+      <c r="E7">
         <v>1356280.151814011</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>87971.8087630424</v>
-      </c>
-      <c r="F7">
-        <v>520583.3999970317</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3614340.785342141</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>897.8504546997594</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>60.30389047852396</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>665450.4556290813</v>
+      </c>
+      <c r="E7">
         <v>1476574.625317757</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>113765.4802315199</v>
-      </c>
-      <c r="F7">
-        <v>665450.4556290813</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3934912.623877363</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1081.162051917008</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>72.61596586275803</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>795371.3817852312</v>
+      </c>
+      <c r="E7">
         <v>1607302.71735721</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>136992.6577422792</v>
-      </c>
-      <c r="F7">
-        <v>795371.3817852312</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4283288.934049119</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1186.910710776383</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.71854682011694</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>870523.3400716741</v>
+      </c>
+      <c r="E7">
         <v>1741458.577076514</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>150391.9347555086</v>
-      </c>
-      <c r="F7">
-        <v>870523.3400716741</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4640799.87655432</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1211.934475446473</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.39926141587894</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>888073.8079140523</v>
+      </c>
+      <c r="E7">
         <v>1872601.123451633</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153562.6639008708</v>
-      </c>
-      <c r="F7">
-        <v>888073.8079140523</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4990280.66297094</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1199.214198540941</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>80.54490735128788</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>877062.8732641316</v>
+      </c>
+      <c r="E7">
         <v>1994918.24131679</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>151950.8939192879</v>
-      </c>
-      <c r="F7">
-        <v>877062.8732641316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5316242.631266532</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1174.655507666952</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>78.89542931515295</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>855306.2920556164</v>
+      </c>
+      <c r="E7">
         <v>2103328.17909395</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>148839.0936784881</v>
-      </c>
-      <c r="F7">
-        <v>855306.2920556164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5605143.459845585</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1146.184189182452</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>76.98316067099152</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>828045.4786364092</v>
+      </c>
+      <c r="E7">
         <v>2193612.069075664</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>145231.5294084485</v>
-      </c>
-      <c r="F7">
-        <v>828045.4786364092</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5845740.319855521</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1118.569907712682</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>75.12845469330951</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>797400.66578255</v>
+      </c>
+      <c r="E7">
         <v>2262544.504774444</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>141732.5591999773</v>
-      </c>
-      <c r="F7">
-        <v>797400.66578255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6029437.849783867</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.98521824690324E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.348308770120544E-14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.067047209096106E-08</v>
+      </c>
+      <c r="E7">
         <v>1.934169136644827</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.316706139081216E-11</v>
-      </c>
-      <c r="F7">
-        <v>1.067047209096106E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5.154352798701166</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1084.271164708116</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>72.82478860852706</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>756165.0179667238</v>
+      </c>
+      <c r="E7">
         <v>2308003.749274115</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>137386.6094387148</v>
-      </c>
-      <c r="F7">
-        <v>756165.0179667238</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6150581.848865652</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1013.16313174842</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>68.0488362109992</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>681886.9486111142</v>
+      </c>
+      <c r="E7">
         <v>2329063.349906112</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>128376.6017301552</v>
-      </c>
-      <c r="F7">
-        <v>681886.9486111142</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6206703.42034588</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>868.404504283849</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>58.32616093612384</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>549978.0604223086</v>
+      </c>
+      <c r="E7">
         <v>2326069.10410549</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>110034.4215987549</v>
-      </c>
-      <c r="F7">
-        <v>549978.0604223086</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6198724.077210871</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>703.3870637229167</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>47.24280778912289</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>402628.6924499616</v>
+      </c>
+      <c r="E7">
         <v>2300691.116587215</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>89125.27322808493</v>
-      </c>
-      <c r="F7">
-        <v>402628.6924499616</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6131094.4689662</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>602.6229059997729</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.47500954422571</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>306601.9244875859</v>
+      </c>
+      <c r="E7">
         <v>2255923.329929105</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76357.57596458971</v>
-      </c>
-      <c r="F7">
-        <v>306601.9244875859</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6011793.130690704</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>560.7703121019777</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.66399104393574</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>265076.6916540121</v>
+      </c>
+      <c r="E7">
         <v>2195993.034519045</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>71054.48743933004</v>
-      </c>
-      <c r="F7">
-        <v>265076.6916540121</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5852085.336774771</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>527.8561665184784</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.45332108205967</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>244948.7839319923</v>
+      </c>
+      <c r="E7">
         <v>2126146.196462521</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66883.97824248488</v>
-      </c>
-      <c r="F7">
-        <v>244948.7839319923</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5665951.022874188</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>483.7154371132726</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.48862056009599</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>228593.5882002648</v>
+      </c>
+      <c r="E7">
         <v>2052293.561254278</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61290.96300006117</v>
-      </c>
-      <c r="F7">
-        <v>228593.5882002648</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5469141.690243953</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>441.257676753308</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.63695621297829</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>221203.5487670853</v>
+      </c>
+      <c r="E7">
         <v>1980536.05855597</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55911.19460809504</v>
-      </c>
-      <c r="F7">
-        <v>221203.5487670853</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5277915.660496404</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>419.5837772214667</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.18123443128385</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>234622.508081322</v>
+      </c>
+      <c r="E7">
         <v>1916627.126018204</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53164.92258047304</v>
-      </c>
-      <c r="F7">
-        <v>234622.508081322</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5107605.226394732</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.011238996507102E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.350843400887495E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.626760977251955E-07</v>
+      </c>
+      <c r="E7">
         <v>5.353795466801422</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.548415151992149E-09</v>
-      </c>
-      <c r="F7">
-        <v>3.626760977251955E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>14.2672893105154</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>432.1695434776924</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.02655412336725</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>275169.6660950663</v>
+      </c>
+      <c r="E7">
         <v>1865458.049339055</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54759.64889010107</v>
-      </c>
-      <c r="F7">
-        <v>275169.6660950663</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4971245.138442114</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>490.8870531753911</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.97030027334917</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>344604.8440567353</v>
+      </c>
+      <c r="E7">
         <v>1830654.945161118</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62199.66927856478</v>
-      </c>
-      <c r="F7">
-        <v>344604.8440567353</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4878498.607632397</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>599.1989851127835</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.24504279520269</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>439709.7560542097</v>
+      </c>
+      <c r="E7">
         <v>1814348.295111703</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75923.73533785266</v>
-      </c>
-      <c r="F7">
-        <v>439709.7560542097</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4835043.138445538</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>747.4997415190393</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.20562423211434</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>553401.9050610455</v>
+      </c>
+      <c r="E7">
         <v>1817129.899456388</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94714.73408707883</v>
-      </c>
-      <c r="F7">
-        <v>553401.9050610455</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4842455.814962431</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>916.3212276048439</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>61.54447509981748</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>675876.2520734426</v>
+      </c>
+      <c r="E7">
         <v>1838169.105247907</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>116105.8881901003</v>
-      </c>
-      <c r="F7">
-        <v>675876.2520734426</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4898523.036385517</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1079.686233334287</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>72.51684289443661</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>792376.9065982476</v>
+      </c>
+      <c r="E7">
         <v>1875437.031012932</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>136805.6586613978</v>
-      </c>
-      <c r="F7">
-        <v>792376.9065982476</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4997838.051721748</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1210.357652045891</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.2933544854375</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>884974.5572496584</v>
+      </c>
+      <c r="E7">
         <v>1925987.273271278</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153362.8666289883</v>
-      </c>
-      <c r="F7">
-        <v>884974.5572496584</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5132549.01247635</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1286.03530758403</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>86.37622438582591</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>938003.1799400084</v>
+      </c>
+      <c r="E7">
         <v>1986254.71232058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>162951.8853570247</v>
-      </c>
-      <c r="F7">
-        <v>938003.1799400084</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5293155.257943169</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1306.883183746626</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.77646652441167</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>951077.9855635648</v>
+      </c>
+      <c r="E7">
         <v>2052348.590131423</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>165593.4930223436</v>
-      </c>
-      <c r="F7">
-        <v>951077.9855635648</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5469288.336285162</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1293.490250624888</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>86.87693368135093</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>937930.2143202459</v>
+      </c>
+      <c r="E7">
         <v>2120325.440405398</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>163896.4916338299</v>
-      </c>
-      <c r="F7">
-        <v>937930.2143202459</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5650439.33379531</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
